--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="2680" windowWidth="26960" windowHeight="13880" tabRatio="500"/>
+    <workbookView xWindow="9600" yWindow="460" windowWidth="19200" windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$1</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="281">
   <si>
     <t>id</t>
   </si>
@@ -86,18 +89,6 @@
     <t>Computer Science</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/shirley-kabir</t>
-  </si>
-  <si>
-    <t>https://github.com/shirleykabir</t>
-  </si>
-  <si>
-    <t>https://shirleykabir.github.io/</t>
-  </si>
-  <si>
     <t>../static/subteams/desops/bw/szk4.jpg</t>
   </si>
   <si>
@@ -110,12 +101,6 @@
     <t>Fang</t>
   </si>
   <si>
-    <t>Anna is a junior from Carmel, Indiana. In addition to her videography work for CUAir, Anna is a teaching assistant and undergraduate researcher. She also enjoys painting, eating at all hours of the day, and petting dogs. Fun facts about Anna are that her birthmark is on her eye and she always carries Flamin' Hot Cheetos with her. </t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/anna-fang-981349a6/</t>
-  </si>
-  <si>
     <t>../static/subteams/desops/bw/amf269.jpg</t>
   </si>
   <si>
@@ -128,9 +113,6 @@
     <t>Bau</t>
   </si>
   <si>
-    <t xml:space="preserve">Katherine Bau is a junior from New York City. Aside from her marketing work for CUAir, Katherine is also Volunteer Coordinator for Camp Kesem Cornell and works in the People Aware Computing Lab. In her spare time, Katherine likes to read and try new foods. </t>
-  </si>
-  <si>
     <t>../static/subteams/desops/bw/kb577.jpg</t>
   </si>
   <si>
@@ -146,9 +128,6 @@
     <t>Mechanical Engineering</t>
   </si>
   <si>
-    <t xml:space="preserve">Sheel is a freshman from Houston, Texas. She likes mochi and playing tennis. In addition to being on the Design and Operations subteam, she enjoys getting into other people’s business and learning about what they’re working on instead of doing her own work. You will most likely see her sprinting to the engineering quad for class every morning. </t>
-  </si>
-  <si>
     <t>../static/subteams/desops/bw/scy33.jpg</t>
   </si>
   <si>
@@ -161,29 +140,746 @@
     <t>Wang</t>
   </si>
   <si>
-    <t>Computer Science and Mathematics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yunyang is from a town in central Ohio that has a giant concrete corn field as a local tourist attraction. Her name is pronounced “yin-yong” (like yin and yang, but cooler), and her favorite hobby is modern calligraphy. She also does not have a phone case because she lives life on the edge. </t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/yunyang-wang-778a13141</t>
-  </si>
-  <si>
     <t>../static/subteams/desops/bw/yew3.jpg</t>
   </si>
   <si>
     <t>../static/subteams/desops/yew3.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Shirley is from Northern Virginia (the best part of VA) who is enjoying all of the fun engineering requirements that allow her to graduate. On campus, she is the secretary for Women in Computing at Cornell, CMSX Developer for the school, as well as a Software Developer for a company called inVenture. You will never catch her without her coffee, and 12/10 of the time she is asleep in Statler Auditorium. Fun fact: she is the worst poker player in the history of mankind. </t>
+    <t>Trevor</t>
+  </si>
+  <si>
+    <t>Hittinger</t>
+  </si>
+  <si>
+    <t>tlh92</t>
+  </si>
+  <si>
+    <t>Trevor Hittinger is a junior mechanical engineering student from Northern Virginia. This is his third year on the Airframe Sub-team where he specializes in tail stabilizer system design and manufacturing processes. Trevor spent this past summer as a Military Systems Engineering Intern at GE Aviation working on the F/A-18 Super Hornet F414 Jet Engine. In his free time, Trevor enjoys playing basketball, hiking and has an avid interest in space exploration.</t>
+  </si>
+  <si>
+    <t>../static/subteams/airframe/bw/tlh92.jpg</t>
+  </si>
+  <si>
+    <t>Jasmine</t>
+  </si>
+  <si>
+    <t>Kitahara</t>
+  </si>
+  <si>
+    <t>jkk95</t>
+  </si>
+  <si>
+    <t>Jasmine Kitahara is a sophomore who embraces the preppy lifestyle of her hometown, Greenwich, CT. Jasmine is also an avid tennis player and golfer. When she is and isn't working on CUAir, she is playing Candy Crush. She isn't a chef, but sure knows how to let things marinate. One time, more recently than she'd like to admit, Jasmine twisted her ankle chasing a duck. In the future, she hopes to safely chase ducks and other fun birds.</t>
+  </si>
+  <si>
+    <t>../static/subteams/airframe/bw/jkk95.jpg</t>
+  </si>
+  <si>
+    <t>Allison</t>
+  </si>
+  <si>
+    <t>Rzepka</t>
+  </si>
+  <si>
+    <t>aer246</t>
+  </si>
+  <si>
+    <t>Materials Science</t>
+  </si>
+  <si>
+    <t>Fiber Science</t>
+  </si>
+  <si>
+    <t>Allison Rzepka is a sophomore studying Materials Science and Engineering with a minor in Fiber Science. From Palatine, Illinois, Allison enjoys CrossFit and playing soccer in her free time but won't pass up a good book. Outside of CUAir, Allison is involved in undergraduate research with the Giannelis Research Group. She is currently working on synthesizing hierarchical porous carbons (HPCs) and studying their applications in capacitors. She has been playing violin since she was 4 years old and enjoys learning pop and rock covers.</t>
+  </si>
+  <si>
+    <t>../static/subteams/airframe/bw/aer246.jpg</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Messiana</t>
+  </si>
+  <si>
+    <t>am2244</t>
+  </si>
+  <si>
+    <t>Aerospace Engineering</t>
+  </si>
+  <si>
+    <t>Anthony is a sophomore from Brooklyn, New York. When he's not in the lab working on the plane, he enjoys swimming, fencing, and late-night calzone eating.</t>
+  </si>
+  <si>
+    <t>../static/subteams/airframe/bw/am2244.jpg</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Zhang</t>
+  </si>
+  <si>
+    <t>wz76</t>
+  </si>
+  <si>
+    <t>Will is a freshman from Buffalo, NY. In his free time, he enjoys kicking back and listening to music, watching Game of Thrones or Rick and Morty, and following Basketball and Football.</t>
+  </si>
+  <si>
+    <t>../static/subteams/airframe/bw/wz76.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/airframe/tlh92.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/airframe/jkk95.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/airframe/aer246.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/airframe/am2244.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/airframe/wz76.jpg</t>
+  </si>
+  <si>
+    <t>Jamie</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>jag534</t>
+  </si>
+  <si>
+    <t>Jamie Gray is a freshman who lives close enough to Philadelphia to tell people that's where he is from. Outside of class he enjoys long walks to West Campus for great food, being turned away because it is House Dinner Night, and then trudging all the way back to RPCC to spitefully eat a huge meal. He also enjoys complaining about there being no Wawa's around and having to order sub sandwiches instead of hoagies. When not doing these things he enjoys kicking balls at carefully guarded nets, lifting awkwardly shaped heavy things for fun, and listening to collections of interesting sounds.</t>
+  </si>
+  <si>
+    <t>../static/subteams/airframe/bw/jag534.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/airframe/jag534.jpg</t>
+  </si>
+  <si>
+    <t>Zack</t>
+  </si>
+  <si>
+    <t>Brody</t>
+  </si>
+  <si>
+    <t>ztb5</t>
+  </si>
+  <si>
+    <t>../static/subteams/autopilot/bw/ztb5.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/autopilot/ztb5.jpg</t>
+  </si>
+  <si>
+    <t>Sheetal</t>
+  </si>
+  <si>
+    <t>Athrey</t>
+  </si>
+  <si>
+    <t>spa42</t>
+  </si>
+  <si>
+    <t>Sheetal Athrey is a Freshman from Dubai, United Arab Emirates, and enjoys singing in her free time. She enjoys test flights but growing up in India and Dubai did not prepare her for the cold weather. Her favorite member on CUAir is Katie Mancini, cause they are soul sisters. Her favorite animal is a Corgi because why not?</t>
+  </si>
+  <si>
+    <t>../static/subteams/autopilot/bw/spa42.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/autopilot/spa42.jpg</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Erlichson</t>
+  </si>
+  <si>
+    <t>eae59</t>
+  </si>
+  <si>
+    <t>Emily Erlichson is a Freshman from Princeton, NJ. As a member of the Autopilot subteam she works to ensure her additional position on CUAir as an RC pilot is a redundancy. In her free time she sings for fun and for her own entertainment. Emily is also an FAA certified Private Pilot and a PADI certified Open Water Diver because she likes hanging out at different pressure altitudes.</t>
+  </si>
+  <si>
+    <t>../static/subteams/autopilot/bw/eae59.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/autopilot/eae59.jpg</t>
+  </si>
+  <si>
+    <t>Yuhan</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>yl2249</t>
+  </si>
+  <si>
+    <t>Katie is a freshman from Allen, Texas. Growing up in Texas, KT is prepared to be a freezing, fluffy marshmallow in her winter coat during the snowy months (not really). Katie 2.0 loves pandas, Ford Mustangs, and crunchy peanut butter. In her free time, Kettle likes to bullet journal, ice skate, and nap. Not-Katie does not know what her name is anymore.</t>
+  </si>
+  <si>
+    <t>../static/subteams/autopilot/bw/yl2249.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/autopilot/yl2249.jpg</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Landgrebe</t>
+  </si>
+  <si>
+    <t>ecl93</t>
+  </si>
+  <si>
+    <t>Eric Landgrebe is from Woodbury Minnesota (the best state) and works on the obstacle avoidance system on the autopilot subteam. He is also somewhat good at kicking a ball toward a net while other people try to stop him. When he was young he was Pokemon card game champion and will definitely talk your ear off about CS/obstacle avoidance if you let him.</t>
+  </si>
+  <si>
+    <t>../static/subteams/autopilot/bw/ecl93.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/autopilot/ecl93.jpg</t>
+  </si>
+  <si>
+    <t>amf269</t>
+  </si>
+  <si>
+    <t>Anna is a junior from Carmel, Indiana. In addition to her videography work for CUAir, Anna is a teaching assistant and undergraduate researcher. She also enjoys painting, eating at all hours of the day, and petting dogs. Fun facts about Anna are that her birthmark is on her eye and she always carries Flamin' Hot Cheetos with her.</t>
+  </si>
+  <si>
+    <t>szk4</t>
+  </si>
+  <si>
+    <t>Shirley is from Northern Virginia (the best part of VA) who is enjoying all of the fun engineering requirements that allow her to graduate. On campus, she is the secretary for Women in Computing at Cornell, CMSX Developer for the school, as well as a Software Developer for a company called inVenture. You will never catch her without her coffee, and 12/10 of the time she is asleep in Statler Auditorium. Fun fact: she is the worst poker player in the history of mankind.</t>
+  </si>
+  <si>
+    <t>scy33</t>
+  </si>
+  <si>
+    <t>Sheel is a freshman from Houston, Texas. She likes mochi and playing tennis. In addition to being on the Design and Operations subteam, she enjoys getting into other people’s business and learning about what they’re working on instead of doing her own work. You will most likely see her sprinting to the engineering quad for class every morning.</t>
+  </si>
+  <si>
+    <t>yew3</t>
+  </si>
+  <si>
+    <t>Computer Science, Mathematics</t>
+  </si>
+  <si>
+    <t>Yunyang is from a town in central Ohio that has a giant concrete corn field as a local tourist attraction. Her name is pronounced “yin-yong” (like yin and yang, but cooler), and her favorite hobby is modern calligraphy. She also does not have a phone case because she lives life on the edge.</t>
+  </si>
+  <si>
+    <t>kb577</t>
+  </si>
+  <si>
+    <t>Katherine Bau is a junior from New York City. Aside from her marketing work for CUAir, Katherine is also Volunteer Coordinator for Camp Kesem Cornell and works in the People Aware Computing Lab. In her spare time, Katherine likes to read and try new foods.</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Weld</t>
+  </si>
+  <si>
+    <t>aw698</t>
+  </si>
+  <si>
+    <t>Electrical and Computer Engineering</t>
+  </si>
+  <si>
+    <t>Adam is a junior electrical engineer who's passionate about robotics and the outdoors. You'll likely find him tinkering with fpv quadcopters for fun and profit, rock climbing, or futzing with his 3D printers.</t>
+  </si>
+  <si>
+    <t>../static/subteams/electrical/bw/aw698.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/electrical/aw698.jpg</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
+    <t>Ho</t>
+  </si>
+  <si>
+    <t>kth62</t>
+  </si>
+  <si>
+    <t>Ken is a freshman majoring in ECE. In his latest 20 minute (mis)adventure, he came within 50 ft of a bear, got (sort of) stranded on the wrong side of a ridge in Denali NP, and crossed the Arctic Circle in a 24-year old Corolla. When not purposefully working himself into difficult situations, he is generally sleeping.</t>
+  </si>
+  <si>
+    <t>../static/subteams/electrical/bw/kth62.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/electrical/kth62.jpg</t>
+  </si>
+  <si>
+    <t>Jake</t>
+  </si>
+  <si>
+    <t>Podell</t>
+  </si>
+  <si>
+    <t>jhp246</t>
+  </si>
+  <si>
+    <t>Jake is cool. Everyone likes Jake. Jake is a sophomore. Jake is from Wayne. Jake is an engineer who studies computer science, but Jake works on the electrical subteam. Jake likes lifting and Greek life (Jake is cool). Jake.</t>
+  </si>
+  <si>
+    <t>../static/subteams/electrical/bw/jhp246.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/electrical/jhp246.jpg</t>
+  </si>
+  <si>
+    <t>Katie</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>keb278</t>
+  </si>
+  <si>
+    <t>Katie Bradford is one of two Katies that are on the team, sometimes she goes by OG Katie. As the result of an electrical accident, Katie’s hair turned a vibrant pink. She is from somewhere in real New England and likes (chicken) nugs.</t>
+  </si>
+  <si>
+    <t>../static/subteams/electrical/bw/keb278.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/electrical/keb278.jpg</t>
+  </si>
+  <si>
+    <t>jw829</t>
+  </si>
+  <si>
+    <t>Emily is a freshman who was born in China and moved to Michigan when she was twelve. She gets excited over weird ideas and creating cool stuff. She really, really likes llamas and hopes to visit a llama farm very soon. She's super passionate about the music in La La Land and pretends to know how to sing. In her spare time, you can find her playing around with a badminton birdie, humming Ed Sheeran, or contemplating life decisions on the slope.</t>
+  </si>
+  <si>
+    <t>../static/subteams/electrical/bw/jw829.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/electrical/jw829.jpg</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Primmer</t>
+  </si>
+  <si>
+    <t>jp2228</t>
+  </si>
+  <si>
+    <t>Joseph is from Moco, Maryland. He very much enjoys making electronic and computer things (He does not enjoy it when electronic and computer things don't work). He also has a pet robot named the Basically Useless Gearbox (BUG).</t>
+  </si>
+  <si>
+    <t>../static/subteams/electrical/bw/jp2228.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/electrical/jp2228.jpg</t>
+  </si>
+  <si>
+    <t>Theresa</t>
+  </si>
+  <si>
+    <t>Bracht</t>
+  </si>
+  <si>
+    <t>tgb62</t>
+  </si>
+  <si>
+    <t>Theresa Bracht is a sophomore from the middle of nowhere, also known as Nebraska. In addition to being on the Mechanical Subteam, Theresa is also the resident cow whisperer. She is responsible for mooing the cows away from the plane during test flights, a role vital to the success of the team. In her free time she enjoys eating all of the snacks in the CUAir fridge while pretending to do work in the lab.</t>
+  </si>
+  <si>
+    <t>../static/subteams/mechanical/bw/tgb62.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/mechanical/tgb62.jpg</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Feibel</t>
+  </si>
+  <si>
+    <t>sof23</t>
+  </si>
+  <si>
+    <t>Applied Engineering Physics</t>
+  </si>
+  <si>
+    <t>Sam is the 7th and last CUAir member with the substring "Sam" in his name and now begrudgingly goes by Fleebly to avoid confusion. Hailing from Brookline, Massachusetts, Sam bleeds Red Sox red which fortunately correspond to his blood's natural color. Occasionally during his spare time but more often during his occupied time, Sam can be found drinking seltzer, solving speed cubes and watching rocket launch live streams in class.</t>
+  </si>
+  <si>
+    <t>../static/subteams/mechanical/bw/sof23.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/mechanical/sof23.jpg</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>scg99</t>
+  </si>
+  <si>
+    <t>Samuel Go is a Freshman from Long Island. A retired baseball player since 2009, Sam realized that sports was not his calling and decided to pursue engineering. Sam likes to get things done early and enjoys teaching himself new things such as playing guitar and computer software. Outside of CUAir and academics, you might find him singing and playing piano, making a capella covers on YouTube with his twin brother, playing chess, or sitting around watching memes and videos all day.</t>
+  </si>
+  <si>
+    <t>../static/subteams/mechanical/bw/scg99.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/mechanical/scg99.jpg</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>Yuan</t>
+  </si>
+  <si>
+    <t>cjy26</t>
+  </si>
+  <si>
+    <t>Christine is a freshman from Maryland. When she's not eating or doing problem sets, she likes to run and complain about how much she hates running. Christine really likes bubble tea, and is always down for a bubble tea run. Her favorite food is the potato because it's so versatile.</t>
+  </si>
+  <si>
+    <t>../static/subteams/mechanical/bw/cjy26.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/mechanical/cjy26.jpg</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
+    <t>Tang</t>
+  </si>
+  <si>
+    <t>rt378</t>
+  </si>
+  <si>
+    <t>Undecided</t>
+  </si>
+  <si>
+    <t>../static/subteams/mechanical/bw/rt378.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/mechanical/rt378.jpg</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Worsley</t>
+  </si>
+  <si>
+    <t>mcw239</t>
+  </si>
+  <si>
+    <t>Mark's story begins in New York's beautiful Lower Hudson Valley. Born at a very young age, Mark has devoted much of his time to reading, running, photography, and beekeeping. A lover of things that fly, Mark dreams of piloting his own plane on a tour across Europe, and, unrelatedly, would like to keep a few pygmy goats. If you look closely enough, and if the lighting is just right, you may notice that Mark has two different colored eyes.</t>
+  </si>
+  <si>
+    <t>../static/subteams/mechanical/bw/mcw239.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/mechanical/mcw239.jpg</t>
+  </si>
+  <si>
+    <t>Zihan</t>
+  </si>
+  <si>
+    <t>zz229</t>
+  </si>
+  <si>
+    <t>Information Science</t>
+  </si>
+  <si>
+    <t>Annie is a junior and a rare Ohioan at Cornell who is not from Cleveland, Cincinnati, or Columbus (instead, she comes from the cornfields). In her free time, she can be found at ultimate frisbee midnight practices in Barton or tossing around a plastic disc on the arts quad.</t>
+  </si>
+  <si>
+    <t>../static/subteams/platform/bw/zz229.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/platform/zz229.jpg</t>
+  </si>
+  <si>
+    <t>Ringel</t>
+  </si>
+  <si>
+    <t>sjr254</t>
+  </si>
+  <si>
+    <t>Public Policy</t>
+  </si>
+  <si>
+    <t>Sam Ringel is a sophomore from Washington, DC. In addition to CUAir, hi is also a member of the writing team for campus satire website CU Nooz. Sam's proudest moment in his time at Cornell came when a one-line-of-code chrome extension he built, that only plays a 1-second audio clip from The Bee Movie every time a page is loaded, somehow reached 2,000 weekly users.</t>
+  </si>
+  <si>
+    <t>../static/subteams/platform/bw/sjr254.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/platform/sjr254.jpg</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>ms2878</t>
+  </si>
+  <si>
+    <t>Maria is a sophomore from Cupertino, California. She was on a dance team for ten years before Cornell, and now only enjoys watching other people dance on the Youtube. She also kept a pet frog named Froggy!</t>
+  </si>
+  <si>
+    <t>../static/subteams/platform/bw/ms2878.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/platform/ms2878.jpg</t>
+  </si>
+  <si>
+    <t>Feng</t>
+  </si>
+  <si>
+    <t>evf23</t>
+  </si>
+  <si>
+    <t>Eric Feng is a sophomore majoring in Computer Science in engineering. He is from the New Jersey shore area, but wishes he were from the Bay Area instead. In his free time, he doesn't really have any. If he is not wearing white sneakers, then something has gone terribly wrong.</t>
+  </si>
+  <si>
+    <t>../static/subteams/platform/bw/evf23.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/platform/evf23.jpg</t>
+  </si>
+  <si>
+    <t>Evan</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>edp46</t>
+  </si>
+  <si>
+    <t>Evan is a freshman from Long Island and it is his first year on the team. Evan enjoys programming and doing physics problems in his free time (nerd alert). A cool fact about Evan is that he knows how to play half a song on the piano. He can also solve a 5x5 Rubik's cube in under 10 minutes (sometimes).</t>
+  </si>
+  <si>
+    <t>../static/subteams/platform/bw/edp46.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/platform/edp46.jpg</t>
+  </si>
+  <si>
+    <t>Ngoma</t>
+  </si>
+  <si>
+    <t>an474</t>
+  </si>
+  <si>
+    <t>Born in Congo, Anthony Ngoma is a freshman from Arlington, Texas. In his free time, he enjoys playing soccer(a lot!) and learning new things. His favorite quote: "Get comfortable being uncomfortable" by Jullian Michaels.</t>
+  </si>
+  <si>
+    <t>../static/subteams/platform/bw/an474.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/platform/an474.jpg</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Sternklar-Davis</t>
+  </si>
+  <si>
+    <t>bs697</t>
+  </si>
+  <si>
+    <t>Ben Sternklar-Davis is a junior from New York City. This is his third year as a member of CUAir’s airframe subteam, specifically specializing in the implementation of rapid prototyping technology. Outside of CUAir, Ben is involved in Hillel’s Communications Committee and Freshmen Engagement Team, and works in the Rapid Prototyping Lab. In his spare time, Ben enjoys playing ultimate frisbee and you can find him searching for open eateries after 2am.</t>
+  </si>
+  <si>
+    <t>../static/subteams/leads/bw/bs697.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/leads/bs697.jpg</t>
+  </si>
+  <si>
+    <t>Sitar</t>
+  </si>
+  <si>
+    <t>Harel</t>
+  </si>
+  <si>
+    <t>sh927</t>
+  </si>
+  <si>
+    <t>Sitar is from the Bay Area and has five fingers on his left hand. As an Autopilot subteam member, Sitar primarily plays with planes until they fly by themselves.</t>
+  </si>
+  <si>
+    <t>../static/subteams/leads/bw/sh927.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/leads/sh927.jpg</t>
+  </si>
+  <si>
+    <t>Chaska</t>
+  </si>
+  <si>
+    <t>Yamane</t>
+  </si>
+  <si>
+    <t>cky24</t>
+  </si>
+  <si>
+    <t>You know how a typical ice breaker is to have everyone go around and say their name and a fun fact? And most of the time the fun facts are things like, "I'm from California", "My middle name is Kenneth," or "I have an above average number of legs"? I feel like people are putting more effort on the "fact" part of "fun facts" rather than the "fun" part. I believe that fun facts ought to be more fun than fact! My go to fun fact recently has been: fish actually cannot breathe underwater, they just hold their breath for a really long time. Other fun facts include: most numbers have the digit 2 in it, coffee is just tea that has brewed for too long, and I am amazed that you have gotten this far in my bio. Thank you, and good day.</t>
+  </si>
+  <si>
+    <t>../static/subteams/leads/bw/cky24.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/leads/cky24.jpg</t>
+  </si>
+  <si>
+    <t>Sammy</t>
+  </si>
+  <si>
+    <t>Moseley</t>
+  </si>
+  <si>
+    <t>sjm352</t>
+  </si>
+  <si>
+    <t>Sammy is a Computer Science major, with strong interests in machine learning and data analytics. He is an avid cyclist during Ithaca's warmer months (admittedly few in number), and also enjoys cross country and downhill skiing. His other hobbies include cooking and traveling. One of Sammy's favorite things about CUAir is being part of a team with such a broad range of personalities and skill sets that all work together to create a great final product.</t>
+  </si>
+  <si>
+    <t>../static/subteams/vision/bw/sjm352.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/vision/sjm352.jpg</t>
+  </si>
+  <si>
+    <t>Quinn</t>
+  </si>
+  <si>
+    <t>Halpin</t>
+  </si>
+  <si>
+    <t>qmh4</t>
+  </si>
+  <si>
+    <t>Quinn, hailing from a small town in New Jersey, sometimes pronounced "New Joi-zee", is bewildered by here state's obsession with steak and cheese. She enjoys standing on surfboards in her spare time.</t>
+  </si>
+  <si>
+    <t>../static/subteams/vision/bw/qmh4.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/vision/qmh4.jpg</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Shim</t>
+  </si>
+  <si>
+    <t>cs899</t>
+  </si>
+  <si>
+    <t>Rachel Shim is a sophomore from Fairfax, VA, but always tells people she is from DC. In her free time, Rachel can be found rock climbing or working on the New York Times crossword, though she isn't particularly good at either. Rachel is an expert at trivia and the 1x1 Rubik's cube and is quite talented at eating guacamole.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/rachel-shim/</t>
+  </si>
+  <si>
+    <t>https://github.com/rachelshim</t>
+  </si>
+  <si>
+    <t>https://rachelshim.github.io/</t>
+  </si>
+  <si>
+    <t>../static/subteams/vision/bw/cs899.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/vision/cs899.jpg</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>jz359</t>
+  </si>
+  <si>
+    <t>Andy Zhang is a Freshman and although he is a land animal, Andy spends most of his time drowning in procrastinated work. Nevertheless, he finds time doing what he loves on the Vision subteam, and follows the NBA religiously.</t>
+  </si>
+  <si>
+    <t>../static/subteams/vision/bw/jz359.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/vision/jz359.jpg</t>
+  </si>
+  <si>
+    <t>Arpit</t>
+  </si>
+  <si>
+    <t>Kalla</t>
+  </si>
+  <si>
+    <t>ak2242</t>
+  </si>
+  <si>
+    <t>Computer Science, Physics</t>
+  </si>
+  <si>
+    <t>Arpit is a freshman from Mumbai. He loves making puns even when no one laughs at them. He loves napping in PSB. If you are ever there, he will CU-th-AIR.</t>
+  </si>
+  <si>
+    <t>../static/subteams/vision/bw/ak2242.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/vision/ak2242.jpg</t>
+  </si>
+  <si>
+    <t>Abu</t>
+  </si>
+  <si>
+    <t>Qader</t>
+  </si>
+  <si>
+    <t>abq2</t>
+  </si>
+  <si>
+    <t>Cognitive Science</t>
+  </si>
+  <si>
+    <t>Abu is a freshman who enjoys looking at Joe Biden memes, scrolling through Arxiv and occasionally interacting with other humans. His research centers around neural network architecture in medical imaging. He is a part of the vision subteam.</t>
+  </si>
+  <si>
+    <t>../static/subteams/vision/bw/abq2.jpg</t>
+  </si>
+  <si>
+    <t>../static/subteams/vision/abq2.jpg</t>
+  </si>
+  <si>
+    <t>netid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -198,17 +894,29 @@
       <name val="Nunito Regular"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Nunito Regular"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Nunito"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -230,20 +938,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -524,18 +1241,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="65" customWidth="1"/>
+    <col min="12" max="12" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,282 +1263,2013 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" s="3">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>36256</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>34994</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>35821</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" s="3">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>36067</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>35666</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>36132</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2</v>
+      </c>
+      <c r="K8" s="4">
+        <v>36235</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2</v>
+      </c>
+      <c r="K9" s="4">
+        <v>36186</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>35547</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>35836</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2</v>
+      </c>
+      <c r="K12" s="4">
+        <v>36159</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4">
+        <v>36338</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2</v>
+      </c>
+      <c r="K14" s="4">
+        <v>36417</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <v>36103</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <v>42862</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B17" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2</v>
+      </c>
+      <c r="K17" s="7">
+        <v>36172</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="D2" s="2">
+      <c r="B18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>35611</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="K19" s="6">
+        <v>36267</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>35815</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2</v>
+      </c>
+      <c r="K21" s="7">
+        <v>42770</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>42852</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
+        <v>3</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <v>35967</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2</v>
+      </c>
+      <c r="K24" s="4">
+        <v>35244</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" s="3">
+        <v>5</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3">
+        <v>2</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <v>36000</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3">
+        <v>3</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2</v>
+      </c>
+      <c r="K26" s="4">
+        <v>36399</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E27" s="3">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3">
+        <v>3</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>35496</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="65" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E28" s="3">
+        <v>7</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3">
+        <v>3</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4">
+        <v>35652</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" s="3">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3">
+        <v>2</v>
+      </c>
+      <c r="K29" s="4">
+        <v>36194</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E30" s="3">
+        <v>7</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3">
+        <v>3</v>
+      </c>
+      <c r="J30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K30" s="4">
+        <v>35021</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3">
+        <v>3</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4">
+        <v>35664</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4">
+        <v>35941</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I33" s="3">
+        <v>3</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1</v>
+      </c>
+      <c r="K33" s="7">
+        <v>35806</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3">
+        <v>3</v>
+      </c>
+      <c r="J34" s="3">
+        <v>2</v>
+      </c>
+      <c r="K34" s="4">
+        <v>36413</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3">
+        <v>3</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1</v>
+      </c>
+      <c r="K35" s="7">
+        <v>35985</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3">
+        <v>3</v>
+      </c>
+      <c r="J36" s="3">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4">
+        <v>35789</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="Q36" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E37" s="3">
+        <v>6</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3">
+        <v>3</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>35616</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" s="3">
+        <v>4</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I38" s="3">
+        <v>3</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4">
+        <v>35610</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3">
+        <v>3</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>35384</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3">
+        <v>3</v>
+      </c>
+      <c r="J40" s="3">
         <v>2</v>
       </c>
-      <c r="J2" s="3">
-        <v>35789</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="81" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="K40" s="4">
+        <v>36146</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3">
+        <v>3</v>
+      </c>
+      <c r="J41" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="K41" s="4">
+        <v>36363</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3">
+        <v>2</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2</v>
+      </c>
+      <c r="K42" s="7">
+        <v>36472</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>3</v>
-      </c>
-      <c r="J3" s="3">
-        <v>35300</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="H43" s="3"/>
+      <c r="I43" s="3">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1</v>
+      </c>
+      <c r="K43" s="4">
+        <v>35913</v>
+      </c>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2">
-        <v>3</v>
-      </c>
-      <c r="J4" s="3">
-        <v>35301</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="2">
-        <v>3</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>36032</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="81" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>36078</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>48</v>
+      <c r="H44" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I44" s="3">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <v>35593</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q1">
+    <sortState ref="A2:Q44">
+      <sortCondition ref="B1:B44"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="L6" r:id="rId1"/>
-    <hyperlink ref="L3" r:id="rId2"/>
-    <hyperlink ref="N2" r:id="rId3"/>
-    <hyperlink ref="M2" r:id="rId4"/>
-    <hyperlink ref="L2" r:id="rId5"/>
+    <hyperlink ref="M28" r:id="rId1"/>
+    <hyperlink ref="N28" r:id="rId2"/>
+    <hyperlink ref="O28" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="460" windowWidth="19200" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="2360" yWindow="460" windowWidth="26440" windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1243,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1366,7 +1366,7 @@
         <v>119</v>
       </c>
       <c r="E3" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -1411,7 +1411,7 @@
         <v>50</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>106</v>
       </c>
       <c r="E6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1550,7 +1550,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>218</v>
       </c>
       <c r="E8" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>224</v>
       </c>
       <c r="E10" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>236</v>
       </c>
       <c r="E11" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>172</v>
       </c>
       <c r="E12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>90</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>142</v>
       </c>
       <c r="E14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1900,24 +1900,24 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="E15" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>18</v>
@@ -1930,39 +1930,39 @@
         <v>1</v>
       </c>
       <c r="K15" s="4">
-        <v>36103</v>
+        <v>42862</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3" t="s">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>18</v>
@@ -1975,19 +1975,19 @@
         <v>1</v>
       </c>
       <c r="K16" s="4">
-        <v>42862</v>
+        <v>36103</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3" t="s">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>105</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="60" x14ac:dyDescent="0.25">
@@ -2004,7 +2004,7 @@
         <v>213</v>
       </c>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>132</v>
       </c>
       <c r="E18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -2094,7 +2094,7 @@
         <v>73</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
@@ -2141,7 +2141,7 @@
         <v>45</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -2186,7 +2186,7 @@
         <v>148</v>
       </c>
       <c r="E21" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -2231,7 +2231,7 @@
         <v>115</v>
       </c>
       <c r="E22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -2276,7 +2276,7 @@
         <v>138</v>
       </c>
       <c r="E23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
@@ -2321,7 +2321,7 @@
         <v>126</v>
       </c>
       <c r="E24" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>202</v>
       </c>
       <c r="E25" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
@@ -2411,7 +2411,7 @@
         <v>184</v>
       </c>
       <c r="E26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>178</v>
       </c>
       <c r="E29" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>160</v>
       </c>
       <c r="E31" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         <v>166</v>
       </c>
       <c r="E32" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>195</v>
       </c>
       <c r="E33" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>110</v>
       </c>
       <c r="E34" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
@@ -2822,7 +2822,7 @@
         <v>84</v>
       </c>
       <c r="E35" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -2867,7 +2867,7 @@
         <v>108</v>
       </c>
       <c r="E36" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
@@ -2912,7 +2912,7 @@
         <v>230</v>
       </c>
       <c r="E37" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -2957,7 +2957,7 @@
         <v>154</v>
       </c>
       <c r="E38" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
@@ -3004,7 +3004,7 @@
         <v>40</v>
       </c>
       <c r="E39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>63</v>
       </c>
       <c r="E40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>96</v>
       </c>
       <c r="E41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -3139,7 +3139,7 @@
         <v>112</v>
       </c>
       <c r="E42" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>79</v>
       </c>
       <c r="E43" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>189</v>
       </c>
       <c r="E44" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
